--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwx1087747\Documents\Learning_Path\PlayGround\algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8576199-A479-4EC7-85AD-2FF466BBA5EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54536187-38B0-4CEC-84EB-1437F140ACD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7908" activeTab="1" xr2:uid="{E898A326-F35C-446B-9EA0-1FD3432446BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7908" activeTab="2" xr2:uid="{E898A326-F35C-446B-9EA0-1FD3432446BF}"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
     <sheet name="tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="algo" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">algo!$A$1:$C$161</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="210">
   <si>
     <t>题目</t>
   </si>
@@ -116,6 +120,546 @@
   </si>
   <si>
     <t>leet</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Two Number Sum</t>
+  </si>
+  <si>
+    <t>Validate Subsequence</t>
+  </si>
+  <si>
+    <t>Sorted Squared Array</t>
+  </si>
+  <si>
+    <t>Tournament Winner</t>
+  </si>
+  <si>
+    <t>Non-Constructible Change</t>
+  </si>
+  <si>
+    <t>Three Number Sum</t>
+  </si>
+  <si>
+    <t>Smallest Difference</t>
+  </si>
+  <si>
+    <t>Move Element to End</t>
+  </si>
+  <si>
+    <t>Monotonic Array</t>
+  </si>
+  <si>
+    <t>Spiral Traverse</t>
+  </si>
+  <si>
+    <t>Longest Peak</t>
+  </si>
+  <si>
+    <t>Array of Products</t>
+  </si>
+  <si>
+    <t>difficultity</t>
+  </si>
+  <si>
+    <t>First Duplicate Value</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Four Number Sum</t>
+  </si>
+  <si>
+    <t>Subarray Sort</t>
+  </si>
+  <si>
+    <t>Largest Range</t>
+  </si>
+  <si>
+    <t>Min Rewards</t>
+  </si>
+  <si>
+    <t>Zigzag Traverse</t>
+  </si>
+  <si>
+    <t>Apartment Hunting</t>
+  </si>
+  <si>
+    <t>Calendar Matching</t>
+  </si>
+  <si>
+    <t>Waterfall Streams</t>
+  </si>
+  <si>
+    <t>Minimum Area Rectangle</t>
+  </si>
+  <si>
+    <t>Line Through Points</t>
+  </si>
+  <si>
+    <t>Find Closest Value in BST</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>BST Construction</t>
+  </si>
+  <si>
+    <t>Validate BST</t>
+  </si>
+  <si>
+    <t>BST Traversal</t>
+  </si>
+  <si>
+    <t>Min Height BST</t>
+  </si>
+  <si>
+    <t>Find Kth Largest Value in BST</t>
+  </si>
+  <si>
+    <t>Reconstruct BST</t>
+  </si>
+  <si>
+    <t>Same BSTs</t>
+  </si>
+  <si>
+    <t>Validate Tree Nodes</t>
+  </si>
+  <si>
+    <t>very hard</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>Right Smaller Than</t>
+  </si>
+  <si>
+    <t>Branch Sums</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>Node Depths</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Diameter</t>
+  </si>
+  <si>
+    <t>Find Successor</t>
+  </si>
+  <si>
+    <t>Height Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Max Path Sum in Binary Tree</t>
+  </si>
+  <si>
+    <t>Find Nodes Distance K</t>
+  </si>
+  <si>
+    <t>Iterative In-order Traversal</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree</t>
+  </si>
+  <si>
+    <t>Right Sibling Tree</t>
+  </si>
+  <si>
+    <t>All Kinds Of Node Depths</t>
+  </si>
+  <si>
+    <t>Compare Leaf Traveral</t>
+  </si>
+  <si>
+    <t>Max Subset Sum No Adjacent</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Number of Ways To Make Change</t>
+  </si>
+  <si>
+    <t>Min Number Of Coins For Change</t>
+  </si>
+  <si>
+    <t>Levenshtein Distance</t>
+  </si>
+  <si>
+    <t>Number Of Ways to Traverse Graph</t>
+  </si>
+  <si>
+    <t>Max Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Min Number of Jumps</t>
+  </si>
+  <si>
+    <t>Water Area</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Disk Stacking</t>
+  </si>
+  <si>
+    <t>Numbers In Pi</t>
+  </si>
+  <si>
+    <t>Maximum Sum Submatrix</t>
+  </si>
+  <si>
+    <t>Maximize Expression</t>
+  </si>
+  <si>
+    <t>Max Profit With K Transactions</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning Min Cuts</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequnce</t>
+  </si>
+  <si>
+    <t>Longest String Chain</t>
+  </si>
+  <si>
+    <t>Square of Zeroes</t>
+  </si>
+  <si>
+    <t>Famous Algorithms</t>
+  </si>
+  <si>
+    <t>Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t>Dijkstra's Algorithm</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Knuth-Morris-Pratt Algorithm</t>
+  </si>
+  <si>
+    <t>A* Algorithm</t>
+  </si>
+  <si>
+    <t>Depth-first Search</t>
+  </si>
+  <si>
+    <t>Single Cycle Check</t>
+  </si>
+  <si>
+    <t>Breadth-first Search</t>
+  </si>
+  <si>
+    <t>River Sizes</t>
+  </si>
+  <si>
+    <t>Youngest Common Ancestor</t>
+  </si>
+  <si>
+    <t>Remove Islands</t>
+  </si>
+  <si>
+    <t>Cycle in Grapth</t>
+  </si>
+  <si>
+    <t>Minimum Passes Of Matrix</t>
+  </si>
+  <si>
+    <t>Boggle Board</t>
+  </si>
+  <si>
+    <t>Rectangle Mania</t>
+  </si>
+  <si>
+    <t>Detect Arbitrage</t>
+  </si>
+  <si>
+    <t>Two-Edge-Connected Graph</t>
+  </si>
+  <si>
+    <t>Airport Connections</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Greedy Algorithms</t>
+  </si>
+  <si>
+    <t>Minimum Waiting Time</t>
+  </si>
+  <si>
+    <t>Class Photos</t>
+  </si>
+  <si>
+    <t>Tandem Bicycle</t>
+  </si>
+  <si>
+    <t>Task Assignment</t>
+  </si>
+  <si>
+    <t>Valid Starting City</t>
+  </si>
+  <si>
+    <t>Min Heap Construction</t>
+  </si>
+  <si>
+    <t>Heaps</t>
+  </si>
+  <si>
+    <t>Continuous Median</t>
+  </si>
+  <si>
+    <t>Sort K-Sorted Array</t>
+  </si>
+  <si>
+    <t>Laptop Rentals</t>
+  </si>
+  <si>
+    <t>Merge Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Remove Duplicateds From Linked List</t>
+  </si>
+  <si>
+    <t>Linked List Construction</t>
+  </si>
+  <si>
+    <t>Sum of Linked Lists</t>
+  </si>
+  <si>
+    <t>Find Loop</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Merge Linked Lists</t>
+  </si>
+  <si>
+    <t>Shift Linked List</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Rearrange Linked List</t>
+  </si>
+  <si>
+    <t>Linked List Palindrome</t>
+  </si>
+  <si>
+    <t>Linked Lists</t>
+  </si>
+  <si>
+    <t>Remove Kth Node From End</t>
+  </si>
+  <si>
+    <t>Zip Linked List</t>
+  </si>
+  <si>
+    <t>Node Swap</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Nth Fibonacci</t>
+  </si>
+  <si>
+    <t>Product Sum</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Powerset</t>
+  </si>
+  <si>
+    <t>Phone Number Mnemonics</t>
+  </si>
+  <si>
+    <t>Staircase Traversal</t>
+  </si>
+  <si>
+    <t>Lowest Common Manager</t>
+  </si>
+  <si>
+    <t>Interweaving Strings</t>
+  </si>
+  <si>
+    <t>Solve Suduku</t>
+  </si>
+  <si>
+    <t>Generate Div Tags</t>
+  </si>
+  <si>
+    <t>Ambiguous Measurements</t>
+  </si>
+  <si>
+    <t>Number of Binary Tree Topologies</t>
+  </si>
+  <si>
+    <t>Non-Attacking Queens</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>Find Three Largest Numbers</t>
+  </si>
+  <si>
+    <t>Search In Sorted Matrix</t>
+  </si>
+  <si>
+    <t>Shifted Binary Search</t>
+  </si>
+  <si>
+    <t>Search For Range</t>
+  </si>
+  <si>
+    <t>Quickselect</t>
+  </si>
+  <si>
+    <t>Index Equals value</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Three Number Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Radix Sort</t>
+  </si>
+  <si>
+    <t>Merge Sorted</t>
+  </si>
+  <si>
+    <t>Count Inversions</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t>Min Max Stack Construction</t>
+  </si>
+  <si>
+    <t>Balanced Brackets</t>
+  </si>
+  <si>
+    <t>Sunset Views</t>
+  </si>
+  <si>
+    <t>Sort Statck</t>
+  </si>
+  <si>
+    <t>Next Greater Element</t>
+  </si>
+  <si>
+    <t>Shorten Path</t>
+  </si>
+  <si>
+    <t>Largest Rectangle Under Skyline</t>
+  </si>
+  <si>
+    <t>Palindrome Check</t>
+  </si>
+  <si>
+    <t>Caesar Cipher Encryptor</t>
+  </si>
+  <si>
+    <t>Run-Length Encoding</t>
+  </si>
+  <si>
+    <t>Generate Document</t>
+  </si>
+  <si>
+    <t>First Non-Repeating Character</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Valid IP Addresses</t>
+  </si>
+  <si>
+    <t>Reverse Words in String</t>
+  </si>
+  <si>
+    <t>Minimum Characters For Words</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Duplication</t>
+  </si>
+  <si>
+    <t>Underscorify Substring</t>
+  </si>
+  <si>
+    <t>Pattern Matcher</t>
+  </si>
+  <si>
+    <t>Smallest Substring Containing</t>
+  </si>
+  <si>
+    <t>Longest Balanced Substring</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Suffix Trie Construction</t>
+  </si>
+  <si>
+    <t>Multi String Search</t>
+  </si>
+  <si>
+    <t>Tries</t>
   </si>
 </sst>
 </file>
@@ -132,12 +676,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,9 +702,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -190,7 +741,7 @@
     <tableColumn id="2" xr3:uid="{C3590594-1C64-4F0A-897C-CAE021D56B77}" name="题目"/>
     <tableColumn id="3" xr3:uid="{9BCE4371-6DA0-48C3-BAE0-2A12363E02BC}" name="难度"/>
     <tableColumn id="4" xr3:uid="{D0EFAB7A-194B-4119-AF88-F4E441E162FC}" name="日期" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{DC187A39-3542-4C76-851D-5ADCF9A13077}" name="类型" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{DC187A39-3542-4C76-851D-5ADCF9A13077}" name="类型" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{366211EC-6F96-4065-B7F0-C2434A22A6F2}" name="解法1"/>
     <tableColumn id="6" xr3:uid="{ADA17361-070A-4370-8CA7-840B8FE3DE73}" name="解法2"/>
     <tableColumn id="7" xr3:uid="{EA14EEC2-EB24-4660-8673-956F7432A07C}" name="解法3"/>
@@ -203,7 +754,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB0BAD02-792E-43D6-B419-E1F342F61E31}" name="表2" displayName="表2" ref="A1:E8" totalsRowShown="0">
   <autoFilter ref="A1:E8" xr:uid="{BD7E9615-592B-4B23-8214-BFFD323B79EB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E184E3E2-23DC-437A-9C48-1A48D1E51DEE}" name="日期" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E184E3E2-23DC-437A-9C48-1A48D1E51DEE}" name="日期" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{183A95C5-8C02-4781-BB3C-76875E36632B}" name="任务"/>
     <tableColumn id="3" xr3:uid="{511F113B-C96D-4230-B754-C06237B0514B}" name="学习资料"/>
     <tableColumn id="4" xr3:uid="{A3FE027A-E905-4B58-B1DF-B2E1ECBF7A8C}" name="知识点"/>
@@ -612,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE0381-6602-477C-ADAE-5A1F14445A12}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -702,4 +1253,1799 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF144FE-77F1-45B9-98A2-7BE6987CE7E1}">
+  <dimension ref="A1:D161"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>134</v>
+      </c>
+      <c r="B93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>138</v>
+      </c>
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" t="s">
+        <v>147</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>151</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>156</v>
+      </c>
+      <c r="B113" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>161</v>
+      </c>
+      <c r="B118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>165</v>
+      </c>
+      <c r="B122" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>171</v>
+      </c>
+      <c r="B127" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>172</v>
+      </c>
+      <c r="B128" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>176</v>
+      </c>
+      <c r="B132" t="s">
+        <v>182</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>178</v>
+      </c>
+      <c r="B134" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>179</v>
+      </c>
+      <c r="B135" t="s">
+        <v>182</v>
+      </c>
+      <c r="C135" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>181</v>
+      </c>
+      <c r="B137" t="s">
+        <v>182</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>184</v>
+      </c>
+      <c r="B138" t="s">
+        <v>183</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>185</v>
+      </c>
+      <c r="B139" t="s">
+        <v>183</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>187</v>
+      </c>
+      <c r="B141" t="s">
+        <v>183</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>188</v>
+      </c>
+      <c r="B142" t="s">
+        <v>183</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>189</v>
+      </c>
+      <c r="B143" t="s">
+        <v>183</v>
+      </c>
+      <c r="C143" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>190</v>
+      </c>
+      <c r="B144" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>191</v>
+      </c>
+      <c r="B145" t="s">
+        <v>206</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>192</v>
+      </c>
+      <c r="B146" t="s">
+        <v>206</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>193</v>
+      </c>
+      <c r="B147" t="s">
+        <v>206</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>194</v>
+      </c>
+      <c r="B148" t="s">
+        <v>206</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>195</v>
+      </c>
+      <c r="B149" t="s">
+        <v>206</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>196</v>
+      </c>
+      <c r="B150" t="s">
+        <v>206</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>197</v>
+      </c>
+      <c r="B151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>198</v>
+      </c>
+      <c r="B152" t="s">
+        <v>206</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>199</v>
+      </c>
+      <c r="B153" t="s">
+        <v>206</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" t="s">
+        <v>206</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155" t="s">
+        <v>206</v>
+      </c>
+      <c r="C155" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" t="s">
+        <v>206</v>
+      </c>
+      <c r="C157" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>204</v>
+      </c>
+      <c r="B158" t="s">
+        <v>206</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>205</v>
+      </c>
+      <c r="B159" t="s">
+        <v>206</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>207</v>
+      </c>
+      <c r="B160" t="s">
+        <v>209</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>208</v>
+      </c>
+      <c r="B161" t="s">
+        <v>209</v>
+      </c>
+      <c r="C161" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C161" xr:uid="{C6C56C76-DE17-43F9-AFC6-9B0C87DCDD93}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwx1087747\Documents\Learning_Path\PlayGround\algo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54536187-38B0-4CEC-84EB-1437F140ACD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C55293-428C-410F-9D0D-15954725A156}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7908" activeTab="2" xr2:uid="{E898A326-F35C-446B-9EA0-1FD3432446BF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7908" activeTab="3" xr2:uid="{E898A326-F35C-446B-9EA0-1FD3432446BF}"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode" sheetId="1" r:id="rId1"/>
     <sheet name="tasks" sheetId="2" r:id="rId2"/>
-    <sheet name="algo" sheetId="3" r:id="rId3"/>
+    <sheet name="algoexpert" sheetId="3" r:id="rId3"/>
+    <sheet name="DS" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">algo!$A$1:$C$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">algoexpert!$A$1:$C$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="218">
   <si>
     <t>题目</t>
   </si>
@@ -660,6 +661,30 @@
   </si>
   <si>
     <t>Tries</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>test_stack.py</t>
+  </si>
+  <si>
+    <t>test_leetcode_13.py</t>
+  </si>
+  <si>
+    <t>test_leetcode_78.py</t>
+  </si>
+  <si>
+    <t>Stack练习-逆序字符串</t>
+  </si>
+  <si>
+    <t>Stack练习-检查括号平衡</t>
   </si>
 </sst>
 </file>
@@ -734,12 +759,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A470F6A-2304-4F87-9792-BE243F07BC56}" name="表1" displayName="表1" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{894F33FA-0876-4A76-B7C4-0C75E4920238}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A470F6A-2304-4F87-9792-BE243F07BC56}" name="表1" displayName="表1" ref="A1:I4" totalsRowShown="0">
+  <autoFilter ref="A1:I4" xr:uid="{894F33FA-0876-4A76-B7C4-0C75E4920238}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{478E7F90-94C2-4E6E-9DF1-E15C72BDCAD3}" name="序号"/>
     <tableColumn id="2" xr3:uid="{C3590594-1C64-4F0A-897C-CAE021D56B77}" name="题目"/>
     <tableColumn id="3" xr3:uid="{9BCE4371-6DA0-48C3-BAE0-2A12363E02BC}" name="难度"/>
+    <tableColumn id="9" xr3:uid="{800B0201-E24C-49F2-B0FF-D73F86029ADC}" name="file"/>
     <tableColumn id="4" xr3:uid="{D0EFAB7A-194B-4119-AF88-F4E441E162FC}" name="日期" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{DC187A39-3542-4C76-851D-5ADCF9A13077}" name="类型" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{366211EC-6F96-4065-B7F0-C2434A22A6F2}" name="解法1"/>
@@ -1061,20 +1087,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DF21AE-DB7A-4785-89AA-01A8F34019DB}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1084,23 +1112,26 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1110,14 +1141,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>44897</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>13</v>
       </c>
@@ -1127,11 +1158,14 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="1">
         <v>44897</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>78</v>
       </c>
@@ -1141,13 +1175,16 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="1">
         <v>44897</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1259,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF144FE-77F1-45B9-98A2-7BE6987CE7E1}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
@@ -3048,4 +3085,68 @@
   <autoFilter ref="A1:C161" xr:uid="{C6C56C76-DE17-43F9-AFC6-9B0C87DCDD93}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E493B2E-8B05-453E-B52F-FD1E4BFDE1A2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>